--- a/va_facility_data_2025-02-20/Aleda E. Lutz Department of Veterans Affairs Medical Center - Facility Data.xlsx"; filename*=UTF-8''Aleda%20E.%20Lutz%20Department%20of%20Veterans%20Affairs%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Aleda E. Lutz Department of Veterans Affairs Medical Center - Facility Data.xlsx"; filename*=UTF-8''Aleda%20E.%20Lutz%20Department%20of%20Veterans%20Affairs%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,11 +2,11 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="R3d3e0672448c406ea176d1721810f0b6"/>
-    <x:sheet name="Veteran-Centered Care" sheetId="2" r:id="R9fcf5d84d794462181d6d049b1ea044b"/>
-    <x:sheet name="Wait Times" sheetId="3" r:id="R2551734b49e44ae5809dba2851366424"/>
-    <x:sheet name="Satisfaction with Care" sheetId="4" r:id="R4c184f0750b147168335539718c634a2"/>
-    <x:sheet name="Outpatient Score" sheetId="5" r:id="Re4f7d4feb6c84646bedb1714d644f209"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="Rb6f36fc7cc3e4df39478193acd127bd2"/>
+    <x:sheet name="Veteran-Centered Care" sheetId="2" r:id="R3ab78b5a6d37457c8788eb8556e9135f"/>
+    <x:sheet name="Wait Times" sheetId="3" r:id="R389ac40bf5ce4891bac9d4644cb018d6"/>
+    <x:sheet name="Satisfaction with Care" sheetId="4" r:id="R9011e0388c944a95b0a8d53fda924e68"/>
+    <x:sheet name="Outpatient Score" sheetId="5" r:id="Red4c4c6274814942bcec30c1ad8eda64"/>
   </x:sheets>
 </x:workbook>
 </file>
